--- a/xiao-esp32s3/edu-launch-esp32s3.xlsx
+++ b/xiao-esp32s3/edu-launch-esp32s3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.ellis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9B54B5-D44C-43CF-8E80-CBD0168A6E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061FB03-62BF-442C-AE59-F3F389F40AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21255" yWindow="1005" windowWidth="16545" windowHeight="9975"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv01" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>https://github.com/hpssjellis/mcu-stable-edu-launch</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Transistor Example</t>
-  </si>
-  <si>
     <t>small motor driver</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>https://github.com/hpssjellis/mcu-stable-edu-launch/blob/main/xiao-esp32s3/a06b-ble-send-text.ino</t>
   </si>
   <si>
-    <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot221-servo/dot221-servo.ino</t>
-  </si>
-  <si>
-    <t>NO issues with Servo.h</t>
-  </si>
-  <si>
     <t>Video to SD Card</t>
   </si>
   <si>
@@ -206,12 +197,51 @@
   </si>
   <si>
     <t>https://github.com/hpssjellis/mcu-stable-edu-launch/blob/main/xiao-esp32s3/a32-video-to-sd-card.ino</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Needs include esp32Servo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>#define LEDB LED_BUILTIN for most of my next examples</t>
+  </si>
+  <si>
+    <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot224-pwm-transistor/dot224-pwm-transistor.ino</t>
+  </si>
+  <si>
+    <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot226-small-dual-dc-motor-driver/dot226-small-dual-dc-motor-driver.ino</t>
+  </si>
+  <si>
+    <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot227-big-dc-motor-driver/dot227-big-dc-motor-driver.ino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transistor Example </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define LEDB LED_BUILTIN </t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot225-stepper-motor/dot225-stepper-motor.ino</t>
+  </si>
+  <si>
+    <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot222-I2C-grove-OLED/dot222-I2C-grove-OLED.ino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,9 +728,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1056,530 +1087,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="46.08984375" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="45.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.08984375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="103.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B10">
+        <v>6.1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B11">
+        <v>6.2</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>6.1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>6.2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27">
         <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28">
         <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
       <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{45342B89-5886-4840-8574-BFFDED7CF44B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E89BF0A8-547C-4CB5-B519-C4D125084319}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{29B1CF9D-95CF-48EF-90AC-EBBD665ABECE}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{F3D87C9F-9FAB-4CB0-ADB4-D0DF7776A1FF}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{377FE2D2-EA1D-4343-A42F-8FD3D44AB60F}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{4CE08419-B51E-4533-92D3-B97F89F2D89D}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{9F12BA9D-F11D-4ECA-8E8C-CDD48A3C11E7}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{CBCB24FA-F6BC-42FA-B5DA-C197944B532C}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{9F93E8B6-B1B2-4836-9711-8AAD1ECD8C43}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{F963299C-F76C-430D-A092-55249EDD535E}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{5333EE5E-BB14-4FF3-9923-E9F6BBABE07F}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{CFFD2FC7-1461-4E32-93C2-E0ED1B084ED9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId13"/>
 </worksheet>
 </file>
--- a/xiao-esp32s3/edu-launch-esp32s3.xlsx
+++ b/xiao-esp32s3/edu-launch-esp32s3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.ellis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061FB03-62BF-442C-AE59-F3F389F40AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{10F44EC6-73E9-49A8-A50C-9ABDE96CD41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="csv01" sheetId="1" r:id="rId1"/>
+    <sheet name="edu-launch-esp32s3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -184,9 +184,6 @@
     <t>YES. All code works</t>
   </si>
   <si>
-    <t>Yes, although now having core dump issues</t>
-  </si>
-  <si>
     <t>https://github.com/hpssjellis/mcu-stable-edu-launch/blob/main/xiao-esp32s3/a06b-ble-send-text.ino</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>https://github.com/hpssjellis/portenta-pro-community-solutions/blob/main/examples/dot2-portenta-h7-with-accessories/dot22-actuators/dot222-I2C-grove-OLED/dot222-I2C-grove-OLED.ino</t>
+  </si>
+  <si>
+    <t>Issues test needs HAS PSAM</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1090,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" customWidth="1"/>
     <col min="3" max="3" width="46.08984375" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -1107,7 +1107,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>38</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45043</v>
+        <v>45042</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>45044</v>
+        <v>45042</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>45045</v>
+        <v>45042</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1252,7 +1252,7 @@
         <v>6.1</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1272,97 +1272,97 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1374,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1591,13 +1591,13 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
         <v>57</v>
-      </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
